--- a/vtiger-crm-framework-A11/src/test/resources/testScrptData.xlsx
+++ b/vtiger-crm-framework-A11/src/test/resources/testScrptData.xlsx
@@ -516,10 +516,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="190" workbookViewId="0">
-      <selection activeCell="B3" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" zoomScale="190" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -527,57 +527,60 @@
     <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
